--- a/xlsx_templates/CAB_18xxxxx_xxx 做稿/B180xxx_xxx_DetailList_W.xlsx
+++ b/xlsx_templates/CAB_18xxxxx_xxx 做稿/B180xxx_xxx_DetailList_W.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/Desktop/xlsx_templates/CAB_18xxxxx_xxx 做稿/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/go/src/github.com/scott-x/gcase/xlsx_templates/CAB_18xxxxx_xxx 做稿/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4780" yWindow="2200" windowWidth="31580" windowHeight="19260"/>
+    <workbookView xWindow="4780" yWindow="460" windowWidth="31580" windowHeight="19260"/>
   </bookViews>
   <sheets>
     <sheet name="任务单" sheetId="4" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>档案明细：PDQ[01 02 03 04 05]，［］相同刀模, 02(3U):表示02档案有3个UPC</t>
   </si>
@@ -97,10 +97,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>新case，见做稿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Merchant(CAB Buyer):</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -154,6 +150,14 @@
   </si>
   <si>
     <t xml:space="preserve">联系人: </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计：送PLG法语翻译</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">业务：看邮件，翻译后上传到客人的ftp，并邮件通知客人 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -161,7 +165,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -242,6 +246,13 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -410,7 +421,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -455,124 +466,130 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1241,7 +1258,7 @@
   <dimension ref="A1:P31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="B9" sqref="B9:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.15"/>
@@ -1257,37 +1274,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" customFormat="1" ht="77" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="35"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="20"/>
     </row>
     <row r="2" spans="1:16" s="10" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="36" t="s">
+      <c r="B2" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="46"/>
+      <c r="D2" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="51" t="s">
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="53"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="38"/>
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
       <c r="O2" s="6"/>
@@ -1295,21 +1312,21 @@
     </row>
     <row r="3" spans="1:16" s="10" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="13"/>
-      <c r="B3" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="39" t="s">
+      <c r="B3" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="54"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="41"/>
       <c r="M3" s="6"/>
       <c r="N3" s="6"/>
       <c r="O3" s="6"/>
@@ -1319,10 +1336,10 @@
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="18"/>
+      <c r="C4" s="52"/>
       <c r="D4" s="5" t="s">
         <v>12</v>
       </c>
@@ -1335,33 +1352,33 @@
       <c r="G4" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="28"/>
+      <c r="H4" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="17"/>
     </row>
     <row r="5" spans="1:16" s="8" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="16"/>
+        <v>23</v>
+      </c>
+      <c r="B5" s="53" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="54"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="28"/>
+      <c r="H5" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="17"/>
       <c r="M5" s="9"/>
       <c r="N5" s="9"/>
       <c r="O5" s="9"/>
@@ -1369,19 +1386,21 @@
     </row>
     <row r="6" spans="1:16" s="8" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="16"/>
+      <c r="B6" s="55" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="56"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
-      <c r="H6" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="28"/>
+      <c r="H6" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="17"/>
       <c r="M6" s="9"/>
       <c r="N6" s="9"/>
       <c r="O6" s="9"/>
@@ -1389,19 +1408,19 @@
     </row>
     <row r="7" spans="1:16" s="8" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="16"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="54"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
-      <c r="H7" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="28"/>
+      <c r="H7" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="17"/>
       <c r="M7" s="9"/>
       <c r="N7" s="9"/>
       <c r="O7" s="9"/>
@@ -1409,19 +1428,19 @@
     </row>
     <row r="8" spans="1:16" s="8" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="16"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="54"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
-      <c r="H8" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="28"/>
+      <c r="H8" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="17"/>
       <c r="M8" s="9"/>
       <c r="N8" s="9"/>
       <c r="O8" s="9"/>
@@ -1429,19 +1448,19 @@
     </row>
     <row r="9" spans="1:16" s="8" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="3"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="16"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="54"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
-      <c r="H9" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="28"/>
+      <c r="H9" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="17"/>
       <c r="M9" s="9"/>
       <c r="N9" s="9"/>
       <c r="O9" s="9"/>
@@ -1449,19 +1468,19 @@
     </row>
     <row r="10" spans="1:16" s="8" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="3"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="16"/>
+      <c r="B10" s="53"/>
+      <c r="C10" s="54"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
-      <c r="H10" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="I10" s="27"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="28"/>
+      <c r="H10" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="17"/>
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
       <c r="O10" s="9"/>
@@ -1469,19 +1488,19 @@
     </row>
     <row r="11" spans="1:16" s="8" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="3"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="16"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="54"/>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
-      <c r="H11" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="27"/>
-      <c r="L11" s="28"/>
+      <c r="H11" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="17"/>
       <c r="M11" s="9"/>
       <c r="N11" s="9"/>
       <c r="O11" s="9"/>
@@ -1489,19 +1508,19 @@
     </row>
     <row r="12" spans="1:16" s="8" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="3"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="16"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="54"/>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
-      <c r="H12" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="I12" s="27"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="27"/>
-      <c r="L12" s="28"/>
+      <c r="H12" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="17"/>
       <c r="M12" s="9"/>
       <c r="N12" s="9"/>
       <c r="O12" s="9"/>
@@ -1509,19 +1528,19 @@
     </row>
     <row r="13" spans="1:16" s="8" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="3"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="16"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="54"/>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
-      <c r="H13" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="28"/>
+      <c r="H13" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="17"/>
       <c r="M13" s="9"/>
       <c r="N13" s="9"/>
       <c r="O13" s="9"/>
@@ -1529,17 +1548,17 @@
     </row>
     <row r="14" spans="1:16" s="8" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="3"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="16"/>
+      <c r="B14" s="53"/>
+      <c r="C14" s="54"/>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="29"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="40"/>
+      <c r="L14" s="40"/>
       <c r="M14" s="9"/>
       <c r="N14" s="9"/>
       <c r="O14" s="9"/>
@@ -1547,198 +1566,198 @@
     </row>
     <row r="15" spans="1:16" s="8" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="3"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="16"/>
+      <c r="B15" s="53"/>
+      <c r="C15" s="54"/>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
-      <c r="H15" s="30" t="s">
+      <c r="H15" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="I15" s="31"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="31"/>
-      <c r="L15" s="31"/>
-      <c r="M15" s="31"/>
-      <c r="N15" s="31"/>
-      <c r="O15" s="31"/>
-      <c r="P15" s="32"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="43"/>
+      <c r="K15" s="43"/>
+      <c r="L15" s="43"/>
+      <c r="M15" s="43"/>
+      <c r="N15" s="43"/>
+      <c r="O15" s="43"/>
+      <c r="P15" s="44"/>
     </row>
     <row r="16" spans="1:16" s="8" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="3"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="16"/>
+      <c r="B16" s="53"/>
+      <c r="C16" s="54"/>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
-      <c r="H16" s="30" t="s">
+      <c r="H16" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="I16" s="31"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="31"/>
-      <c r="L16" s="31"/>
-      <c r="M16" s="31"/>
-      <c r="N16" s="31"/>
-      <c r="O16" s="31"/>
-      <c r="P16" s="32"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="43"/>
+      <c r="K16" s="43"/>
+      <c r="L16" s="43"/>
+      <c r="M16" s="43"/>
+      <c r="N16" s="43"/>
+      <c r="O16" s="43"/>
+      <c r="P16" s="44"/>
     </row>
     <row r="17" spans="1:12" s="8" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="3"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="16"/>
+      <c r="B17" s="53"/>
+      <c r="C17" s="54"/>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="25"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="45"/>
+      <c r="J17" s="45"/>
+      <c r="K17" s="45"/>
+      <c r="L17" s="45"/>
     </row>
     <row r="18" spans="1:12" s="8" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="3"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="16"/>
+      <c r="B18" s="53"/>
+      <c r="C18" s="54"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
-      <c r="H18" s="26" t="s">
+      <c r="H18" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="I18" s="27"/>
-      <c r="J18" s="27"/>
-      <c r="K18" s="27"/>
-      <c r="L18" s="28"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="17"/>
     </row>
     <row r="19" spans="1:12" s="8" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="3"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="16"/>
+      <c r="B19" s="53"/>
+      <c r="C19" s="54"/>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
-      <c r="H19" s="26" t="s">
+      <c r="H19" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="I19" s="27"/>
-      <c r="J19" s="27"/>
-      <c r="K19" s="27"/>
-      <c r="L19" s="28"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="17"/>
     </row>
     <row r="20" spans="1:12" s="8" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="3"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="16"/>
+      <c r="B20" s="53"/>
+      <c r="C20" s="54"/>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
-      <c r="H20" s="26" t="s">
+      <c r="H20" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="I20" s="27"/>
-      <c r="J20" s="27"/>
-      <c r="K20" s="27"/>
-      <c r="L20" s="28"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="17"/>
     </row>
     <row r="21" spans="1:12" s="8" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="3"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="16"/>
+      <c r="B21" s="53"/>
+      <c r="C21" s="54"/>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="25"/>
-      <c r="K21" s="25"/>
-      <c r="L21" s="25"/>
+      <c r="H21" s="45"/>
+      <c r="I21" s="45"/>
+      <c r="J21" s="45"/>
+      <c r="K21" s="45"/>
+      <c r="L21" s="45"/>
     </row>
     <row r="22" spans="1:12" s="8" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="3"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="16"/>
+      <c r="B22" s="53"/>
+      <c r="C22" s="54"/>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
-      <c r="H22" s="22" t="s">
+      <c r="H22" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="I22" s="23"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="23"/>
-      <c r="L22" s="24"/>
+      <c r="I22" s="50"/>
+      <c r="J22" s="50"/>
+      <c r="K22" s="50"/>
+      <c r="L22" s="51"/>
     </row>
     <row r="23" spans="1:12" s="8" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="3"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="16"/>
+      <c r="B23" s="53"/>
+      <c r="C23" s="54"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
-      <c r="H23" s="42" t="s">
+      <c r="H23" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="I23" s="43"/>
-      <c r="J23" s="43"/>
-      <c r="K23" s="43"/>
-      <c r="L23" s="44"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="28"/>
+      <c r="L23" s="29"/>
     </row>
     <row r="24" spans="1:12" s="8" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="3"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="16"/>
+      <c r="B24" s="53"/>
+      <c r="C24" s="54"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
-      <c r="H24" s="45"/>
-      <c r="I24" s="46"/>
-      <c r="J24" s="46"/>
-      <c r="K24" s="46"/>
-      <c r="L24" s="47"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="31"/>
+      <c r="K24" s="31"/>
+      <c r="L24" s="32"/>
     </row>
     <row r="25" spans="1:12" s="8" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="3"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="16"/>
+      <c r="B25" s="53"/>
+      <c r="C25" s="54"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
-      <c r="H25" s="45"/>
-      <c r="I25" s="46"/>
-      <c r="J25" s="46"/>
-      <c r="K25" s="46"/>
-      <c r="L25" s="47"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="31"/>
+      <c r="K25" s="31"/>
+      <c r="L25" s="32"/>
     </row>
     <row r="26" spans="1:12" s="8" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="3"/>
-      <c r="B26" s="15"/>
-      <c r="C26" s="16"/>
+      <c r="B26" s="53"/>
+      <c r="C26" s="54"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
-      <c r="H26" s="48"/>
-      <c r="I26" s="49"/>
-      <c r="J26" s="49"/>
-      <c r="K26" s="49"/>
-      <c r="L26" s="50"/>
+      <c r="H26" s="33"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="34"/>
+      <c r="L26" s="35"/>
     </row>
     <row r="27" spans="1:12" s="8" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="3"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="16"/>
+      <c r="B27" s="53"/>
+      <c r="C27" s="54"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
@@ -1746,8 +1765,8 @@
     </row>
     <row r="28" spans="1:12" s="8" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="3"/>
-      <c r="B28" s="15"/>
-      <c r="C28" s="16"/>
+      <c r="B28" s="53"/>
+      <c r="C28" s="54"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
@@ -1755,8 +1774,8 @@
     </row>
     <row r="29" spans="1:12" s="8" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="3"/>
-      <c r="B29" s="15"/>
-      <c r="C29" s="16"/>
+      <c r="B29" s="53"/>
+      <c r="C29" s="54"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
@@ -1764,8 +1783,8 @@
     </row>
     <row r="30" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="3"/>
-      <c r="B30" s="15"/>
-      <c r="C30" s="16"/>
+      <c r="B30" s="53"/>
+      <c r="C30" s="54"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
@@ -1773,8 +1792,8 @@
     </row>
     <row r="31" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="3"/>
-      <c r="B31" s="15"/>
-      <c r="C31" s="16"/>
+      <c r="B31" s="53"/>
+      <c r="C31" s="54"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
@@ -1782,6 +1801,45 @@
     </row>
   </sheetData>
   <mergeCells count="55">
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="H16:P16"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="H4:L4"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
     <mergeCell ref="H19:L19"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="D2:G2"/>
@@ -1798,45 +1856,6 @@
     <mergeCell ref="H17:L17"/>
     <mergeCell ref="H13:L13"/>
     <mergeCell ref="H12:L12"/>
-    <mergeCell ref="H16:P16"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="H4:L4"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.51181102362204722"/>
